--- a/monitoring_agent/monitor/Дороги/точно.xlsx
+++ b/monitoring_agent/monitor/Дороги/точно.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file_monitoring_system\monitoring_agent\monitor\Дороги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62383B87-68CD-458C-A594-EB24C06D2BC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182572EE-784E-4F33-98C9-576CE02C0B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="144">
   <si>
     <t>import os</t>
   </si>
@@ -454,19 +454,117 @@
   </si>
   <si>
     <t xml:space="preserve">                if ignore_dir_normalized in normalized_path.split(os.sep):</t>
+  </si>
+  <si>
+    <r>
+      <t>is_commented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE3EAF2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF9FAFB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF4ADF4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF9FAFB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE9AE7E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF9FAFB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE6D37A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF9FAFB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFE3EAF2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF4ADF4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFE9AE7E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFE6D37A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -489,8 +587,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -771,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="L11:L228"/>
+  <dimension ref="G11:L228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L228"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,82 +905,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="L22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L32" t="s">
         <v>19</v>
       </c>
@@ -1866,5 +1970,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>